--- a/sencing_test/comprative_experiment.xlsx
+++ b/sencing_test/comprative_experiment.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasakikanta/R_D/Raspbrerry-Pi-Operation/sencing_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6379DE-EEC6-4A46-8815-E0024AA024C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B2CE89-A258-B44D-A5E9-E55E88DF13F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{D5152D87-1A16-7D40-9007-2C9C9B58F8DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D5152D87-1A16-7D40-9007-2C9C9B58F8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -283,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,11 +314,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,13 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,266 +354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="Y2">
-            <v>0.59171597633136086</v>
-          </cell>
-          <cell r="Z2">
-            <v>0.3224852071005917</v>
-          </cell>
-          <cell r="AA2">
-            <v>0.23274161735700197</v>
-          </cell>
-          <cell r="AB2">
-            <v>0.18786982248520712</v>
-          </cell>
-          <cell r="AC2">
-            <v>0.16094674556213001</v>
-          </cell>
-          <cell r="AD2">
-            <v>0.14299802761341227</v>
-          </cell>
-          <cell r="AE2">
-            <v>0.13017751479289943</v>
-          </cell>
-          <cell r="AF2">
-            <v>0.12056213017751483</v>
-          </cell>
-          <cell r="AG2">
-            <v>0.11308349769888235</v>
-          </cell>
-          <cell r="AH2">
-            <v>0.41479289940828401</v>
-          </cell>
-          <cell r="AI2">
-            <v>0.38192576654115112</v>
-          </cell>
-          <cell r="AJ2">
-            <v>0.35453648915187369</v>
-          </cell>
-          <cell r="AK2">
-            <v>0.33136094674556205</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="Y3">
-            <v>0.85207100591716023</v>
-          </cell>
-          <cell r="Z3">
-            <v>0.42899408284023688</v>
-          </cell>
-          <cell r="AA3">
-            <v>0.28796844181459574</v>
-          </cell>
-          <cell r="AB3">
-            <v>0.2174556213017752</v>
-          </cell>
-          <cell r="AC3">
-            <v>0.17514792899408288</v>
-          </cell>
-          <cell r="AD3">
-            <v>0.14694280078895464</v>
-          </cell>
-          <cell r="AE3">
-            <v>0.12679628064243448</v>
-          </cell>
-          <cell r="AF3">
-            <v>0.11168639053254437</v>
-          </cell>
-          <cell r="AG3">
-            <v>9.99342537804076E-2</v>
-          </cell>
-          <cell r="AH3">
-            <v>9.0532544378698204E-2</v>
-          </cell>
-          <cell r="AI3">
-            <v>8.2840236686390498E-2</v>
-          </cell>
-          <cell r="AJ3">
-            <v>7.6429980276134082E-2</v>
-          </cell>
-          <cell r="AK3">
-            <v>7.1005917159763274E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="Y4">
-            <v>2.3668639053254434</v>
-          </cell>
-          <cell r="Z4">
-            <v>1.2899408284023668</v>
-          </cell>
-          <cell r="AA4">
-            <v>0.93096646942800787</v>
-          </cell>
-          <cell r="AB4">
-            <v>0.75147928994082847</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.64378698224852082</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.57199211045364906</v>
-          </cell>
-          <cell r="AE4">
-            <v>0.53169907016060869</v>
-          </cell>
-          <cell r="AF4">
-            <v>0.50147928994082847</v>
-          </cell>
-          <cell r="AG4">
-            <v>0.46942800788954642</v>
-          </cell>
-          <cell r="AH4">
-            <v>0.45147928994082848</v>
-          </cell>
-          <cell r="AI4">
-            <v>0.43679397525551378</v>
-          </cell>
-          <cell r="AJ4">
-            <v>0.41814595660749515</v>
-          </cell>
-          <cell r="AK4">
-            <v>0.4023668639053255</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="Y5">
-            <v>0.28994082840236673</v>
-          </cell>
-          <cell r="Z5">
-            <v>0.25147928994082841</v>
-          </cell>
-          <cell r="AA5">
-            <v>0.23865877712031561</v>
-          </cell>
-          <cell r="AB5">
-            <v>0.25147928994082841</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.24378698224852074</v>
-          </cell>
-          <cell r="AD5">
-            <v>0.25147928994082841</v>
-          </cell>
-          <cell r="AE5">
-            <v>0.52071005917159774</v>
-          </cell>
-          <cell r="AF5">
-            <v>0.49186390532544388</v>
-          </cell>
-          <cell r="AG5">
-            <v>0.46942800788954642</v>
-          </cell>
-          <cell r="AH5">
-            <v>0.45147928994082848</v>
-          </cell>
-          <cell r="AI5">
-            <v>0.6046261430876817</v>
-          </cell>
-          <cell r="AJ5">
-            <v>0.57840236686390545</v>
-          </cell>
-          <cell r="AK5">
-            <v>0.55621301775147935</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Y6">
-            <v>3.4082840236686378</v>
-          </cell>
-          <cell r="Z6">
-            <v>1.7159763313609462</v>
-          </cell>
-          <cell r="AA6">
-            <v>1.1518737672583823</v>
-          </cell>
-          <cell r="AB6">
-            <v>0.86982248520710037</v>
-          </cell>
-          <cell r="AC6">
-            <v>0.70059171597633119</v>
-          </cell>
-          <cell r="AD6">
-            <v>0.58777120315581843</v>
-          </cell>
-          <cell r="AE6">
-            <v>0.50718512256973791</v>
-          </cell>
-          <cell r="AF6">
-            <v>0.44674556213017746</v>
-          </cell>
-          <cell r="AG6">
-            <v>0.39973701512163046</v>
-          </cell>
-          <cell r="AH6">
-            <v>0.36213017751479287</v>
-          </cell>
-          <cell r="AI6">
-            <v>0.3313609467455621</v>
-          </cell>
-          <cell r="AJ6">
-            <v>0.3057199211045365</v>
-          </cell>
-          <cell r="AK6">
-            <v>0.28402366863905326</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Y7">
-            <v>5.9171597633135677E-3</v>
-          </cell>
-          <cell r="Z7">
-            <v>5.9171597633135677E-3</v>
-          </cell>
-          <cell r="AA7">
-            <v>5.9171597633135677E-3</v>
-          </cell>
-          <cell r="AB7">
-            <v>0.21745562130177523</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.17514792899408288</v>
-          </cell>
-          <cell r="AD7">
-            <v>0.14694280078895466</v>
-          </cell>
-          <cell r="AE7">
-            <v>0.12679628064243451</v>
-          </cell>
-          <cell r="AF7">
-            <v>0.11168639053254438</v>
-          </cell>
-          <cell r="AG7">
-            <v>9.9934253780407614E-2</v>
-          </cell>
-          <cell r="AH7">
-            <v>9.0532544378698204E-2</v>
-          </cell>
-          <cell r="AI7">
-            <v>8.2840236686390512E-2</v>
-          </cell>
-          <cell r="AJ7">
-            <v>7.6429980276134096E-2</v>
-          </cell>
-          <cell r="AK7">
-            <v>7.1005917159763288E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244202B5-BB1E-794E-9970-44519DFBD9C0}">
   <dimension ref="A1:AL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1028,19 +774,19 @@
       <c r="L2">
         <v>0.59171597633136086</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="4"/>
       <c r="Y2" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +856,7 @@
         <v>0.6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="0">2/(1/G3+1/H3)</f>
+        <f t="shared" ref="I3:I7" si="0">2/(1/G3+1/H3)</f>
         <v>0.6</v>
       </c>
       <c r="J3">
@@ -1313,7 +1059,7 @@
       <c r="L5">
         <v>0.28994082840236673</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N5" t="s">
@@ -1420,7 +1166,7 @@
       <c r="L6">
         <v>3.4082840236686378</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="6"/>
       <c r="N6" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1265,7 @@
       <c r="L7">
         <v>5.9171597633135677E-3</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="6"/>
       <c r="N7" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1348,7 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="6"/>
       <c r="N8" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1374,7 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="6"/>
       <c r="N9" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1394,7 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="M10" s="3"/>
+      <c r="M10" s="6"/>
       <c r="N10" t="s">
         <v>11</v>
       </c>
@@ -1666,19 +1412,19 @@
         <f>2/(1/V10+1/T12)</f>
         <v>0.90647482014388481</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
@@ -1708,7 +1454,7 @@
       <c r="I11" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="6"/>
       <c r="N11" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I18" si="1">2/(1/G13+1/H13)</f>
+        <f t="shared" ref="I13:I17" si="1">2/(1/G13+1/H13)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="J13">
@@ -2000,17 +1746,17 @@
       <c r="L15">
         <v>0.25147928994082841</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="5"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="2"/>
       <c r="AA15" t="s">
         <v>20</v>
       </c>
@@ -2190,7 +1936,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AA18" t="s">
@@ -2234,7 +1980,7 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="6"/>
       <c r="AA19" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +2004,7 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="M20" s="3"/>
+      <c r="M20" s="6"/>
       <c r="AA20" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2055,7 @@
       <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
@@ -2349,7 +2095,7 @@
       <c r="L22">
         <v>0.23274161735700197</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
@@ -2377,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I28" si="2">2/(1/G23+1/H23)</f>
+        <f t="shared" ref="I23:I27" si="2">2/(1/G23+1/H23)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="J23">
@@ -2389,7 +2135,7 @@
       <c r="L23">
         <v>0.28796844181459574</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
@@ -2429,7 +2175,7 @@
       <c r="L24">
         <v>0.93096646942800787</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
@@ -2469,7 +2215,7 @@
       <c r="L25">
         <v>0.23865877712031561</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
@@ -2509,7 +2255,7 @@
       <c r="L26">
         <v>1.1518737672583823</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
@@ -2578,17 +2324,17 @@
         <f>G29/H29</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="5"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="2"/>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
@@ -2657,7 +2403,7 @@
       <c r="L32">
         <v>0.18786982248520712</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2699,7 +2445,7 @@
       <c r="L33">
         <v>0.2174556213017752</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
@@ -2739,7 +2485,7 @@
       <c r="L34">
         <v>0.75147928994082847</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
@@ -2779,7 +2525,7 @@
       <c r="L35">
         <v>0.25147928994082841</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
@@ -2819,7 +2565,7 @@
       <c r="L36">
         <v>0.86982248520710037</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
@@ -2859,7 +2605,7 @@
       <c r="L37">
         <v>0.21745562130177523</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
@@ -2868,13 +2614,13 @@
       <c r="F38" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="3"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="M40" s="3"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
@@ -2982,17 +2728,17 @@
       <c r="L43">
         <v>0.17514792899408288</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="5"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
@@ -3110,7 +2856,7 @@
       <c r="L46">
         <v>0.70059171597633119</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3152,7 +2898,7 @@
       <c r="L47">
         <v>0.17514792899408288</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
@@ -3170,7 +2916,7 @@
       <c r="F48" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:24">
       <c r="C49" t="s">
@@ -3195,10 +2941,10 @@
         <f>H49/I49</f>
         <v>0.625</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:24">
-      <c r="M50" s="3"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
@@ -3228,7 +2974,7 @@
       <c r="I51" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
@@ -3268,7 +3014,7 @@
       <c r="L52">
         <v>0.14299802761341227</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
@@ -3308,7 +3054,7 @@
       <c r="L53">
         <v>0.14694280078895464</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
@@ -3348,7 +3094,7 @@
       <c r="L54">
         <v>0.57199211045364906</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
@@ -3427,17 +3173,17 @@
       <c r="L56">
         <v>0.58777120315581843</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="5"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="2"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
@@ -3496,7 +3242,7 @@
       <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3511,7 +3257,7 @@
         <f>H60/I60</f>
         <v>0.75</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
@@ -3541,7 +3287,7 @@
       <c r="I61" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
@@ -3581,7 +3327,7 @@
       <c r="L62">
         <v>0.13017751479289943</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
@@ -3621,7 +3367,7 @@
       <c r="L63">
         <v>0.12679628064243448</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
@@ -3661,7 +3407,7 @@
       <c r="L64">
         <v>0.53169907016060869</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="6"/>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
@@ -3701,7 +3447,7 @@
       <c r="L65">
         <v>0.52071005917159774</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="6"/>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
@@ -3741,7 +3487,7 @@
       <c r="L66">
         <v>0.50718512256973791</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
@@ -3781,52 +3527,52 @@
       <c r="L67">
         <v>0.12679628064243451</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="3"/>
     </row>
     <row r="69" spans="1:24">
       <c r="E69" t="s">
         <v>10</v>
       </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:24">
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="3"/>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
@@ -3856,17 +3602,17 @@
       <c r="I71" t="s">
         <v>3</v>
       </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="3"/>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
@@ -3906,17 +3652,17 @@
       <c r="L72">
         <v>0.12056213017751483</v>
       </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
@@ -3956,17 +3702,17 @@
       <c r="L73">
         <v>0.11168639053254437</v>
       </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
@@ -4006,17 +3752,17 @@
       <c r="L74">
         <v>0.50147928994082847</v>
       </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
@@ -4056,17 +3802,17 @@
       <c r="L75">
         <v>0.49186390532544388</v>
       </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
@@ -4107,17 +3853,17 @@
       <c r="L76">
         <v>0.44674556213017746</v>
       </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
@@ -4158,17 +3904,17 @@
       <c r="L77">
         <v>0.11168639053254438</v>
       </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="3"/>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
@@ -4180,17 +3926,17 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="3"/>
     </row>
     <row r="79" spans="1:24">
       <c r="B79" t="s">
@@ -4202,30 +3948,30 @@
       <c r="E79" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="3"/>
     </row>
     <row r="80" spans="1:24">
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="3"/>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
@@ -4255,17 +4001,17 @@
       <c r="I81" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="3"/>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
@@ -4305,17 +4051,17 @@
       <c r="L82">
         <v>0.11308349769888235</v>
       </c>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="3"/>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
@@ -5437,7 +5183,7 @@
       <c r="L117">
         <v>7.6429980276134096E-2</v>
       </c>
-      <c r="N117" s="4"/>
+      <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
@@ -5731,11 +5477,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M32:M40"/>
-    <mergeCell ref="N43:W43"/>
-    <mergeCell ref="M46:M54"/>
-    <mergeCell ref="N56:W56"/>
-    <mergeCell ref="M59:M67"/>
     <mergeCell ref="N68:W82"/>
     <mergeCell ref="N2:W2"/>
     <mergeCell ref="M5:M11"/>
@@ -5743,6 +5484,11 @@
     <mergeCell ref="N15:W15"/>
     <mergeCell ref="M18:M26"/>
     <mergeCell ref="N29:W29"/>
+    <mergeCell ref="M32:M40"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="M46:M54"/>
+    <mergeCell ref="N56:W56"/>
+    <mergeCell ref="M59:M67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
